--- a/店面统计.xlsx
+++ b/店面统计.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mwi01/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mwi01/WKInternetBarClub/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>主题串串香</t>
   </si>
@@ -45,13 +45,31 @@
   </si>
   <si>
     <t>http://cq.58.com/shangpu/30195411914538x.shtml?utm_source=market&amp;spm=b-31580022738699-me-f-862.mingzhan?utm_source=market&amp;spm=b-31580022738699-me-f-862.mingzhan?psid=183479705196743989864311015&amp;entinfo=30195411914538_0&amp;from=1-list-11&amp;iuType=j_2&amp;PGTID=0d306b32-0003-3022-baa0-3481c0b86aac&amp;ClickID=3</t>
+  </si>
+  <si>
+    <t>http://cq.58.com/shangpu/30521471235121x.shtml?psid=148396941196755833152596657&amp;entinfo=30521471235121_0&amp;from=1-list-5&amp;iuType=j_2&amp;PGTID=0d306b32-0003-339d-cce3-f1def5c10eb5&amp;ClickID=1</t>
+  </si>
+  <si>
+    <t>华峰晶蓝江岸</t>
+  </si>
+  <si>
+    <t>http://cq.58.com/shangpu/30068758152887x.shtml?psid=169000203196755837975460526&amp;entinfo=30068758152887_0&amp;from=2-list-9&amp;iuType=p_0&amp;PGTID=0d306b32-0003-3d38-2e84-6bf1e209f2f2&amp;ClickID=1</t>
+  </si>
+  <si>
+    <t>马鞍师院北门</t>
+  </si>
+  <si>
+    <t>http://cq.58.com/shangpu/30460218461508x.shtml?psid=169000203196755837975460526&amp;entinfo=30460218461508_0&amp;from=2-list-10&amp;iuType=p_0&amp;PGTID=0d306b32-0003-3d38-2e84-6bf1e209f2f2&amp;ClickID=2</t>
+  </si>
+  <si>
+    <t>四环路</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -74,6 +92,11 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -95,7 +118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -108,6 +131,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -387,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.1640625" defaultRowHeight="62" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -424,6 +450,30 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:2" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
